--- a/biology/Histoire de la zoologie et de la botanique/Placide_Massey/Placide_Massey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Placide_Massey/Placide_Massey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Placide Massey, né le 4 octobre 1777 à Tarbes et mort dans la même ville le 18 novembre 1853, était un botaniste et jardinier français du XIXe siècle. 
 </t>
@@ -513,18 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Placide Massey, le grand bienfaiteur de la ville de Tarbes, y naquit le 4 octobre 1777 de Anne Marmouget et de Jean Massey, un maître cordonnier. 
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Placide Massey, le grand bienfaiteur de la ville de Tarbes, y naquit le 4 octobre 1777 de Anne Marmouget et de Jean Massey, un maître cordonnier. 
 Dès 1778, il demeure au numéro 9 de la rue des Grands-Fossés. Il fait ses études à l'École centrale de Tarbes, l'actuel lycée lycée Théophile-Gautier. Il est élève et aide-pharmacien chez Lécussan, au numéro 11 de la place Marcadieu. 
 À l'âge de 18 ans, il abandonne cet emploi et s'engage dans l'armée. Quelques années après, il quitte l'armée et devient l'adjoint de Louis Ramond (1755-1827). 
-Botaniste et jardinier reconnu
-En 1808, il est nommé intendant des jardins de la reine Hortense (en France et au Royaume de Hollande). Il exécute, sur l'ordre du roi Louis-Philippe, de très importantes plantations d'arbres, dans la plaine de Trianon, de Chèvreloup et au parc de Saint-Cloud. 
-Il assure aussi, dès 1819, la direction du potager du roi de Versailles jusqu'en 1848[1]. 
-Installation à Tarbes
-En 1829 et 1852, il achète, à Tarbes, des terrains pour créer un grand jardin et y plante des arbres.
-En 1850, il prend sa retraite et fait bâtir sa maison et continue la plantation d'arbres aux essences rares. Il veut également doter sa ville d’un muséum d’histoire naturelle, et fait construire à cette fin un bâtiment de style oriental, dominé par une tour d'observation sur les Pyrénées, œuvre de l'architecte Jean-Jacques Latour. C'est dans ce bâtiment, inachevé à sa mort, que fut créé le musée Massey.
-Mort
-Placide Massey meurt à Tarbes le 18 novembre 1853, à l'âge de 76 ans, et est inhumé au cimetière Saint-Jean. Il a légué son jardin, le Jardin Massey, et presque tous ses biens à la ville de Tarbes.
 </t>
         </is>
       </c>
@@ -550,10 +559,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Botaniste et jardinier reconnu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1808, il est nommé intendant des jardins de la reine Hortense (en France et au Royaume de Hollande). Il exécute, sur l'ordre du roi Louis-Philippe, de très importantes plantations d'arbres, dans la plaine de Trianon, de Chèvreloup et au parc de Saint-Cloud. 
+Il assure aussi, dès 1819, la direction du potager du roi de Versailles jusqu'en 1848. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Placide_Massey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Placide_Massey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Installation à Tarbes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1829 et 1852, il achète, à Tarbes, des terrains pour créer un grand jardin et y plante des arbres.
+En 1850, il prend sa retraite et fait bâtir sa maison et continue la plantation d'arbres aux essences rares. Il veut également doter sa ville d’un muséum d’histoire naturelle, et fait construire à cette fin un bâtiment de style oriental, dominé par une tour d'observation sur les Pyrénées, œuvre de l'architecte Jean-Jacques Latour. C'est dans ce bâtiment, inachevé à sa mort, que fut créé le musée Massey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Placide_Massey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Placide_Massey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Placide Massey meurt à Tarbes le 18 novembre 1853, à l'âge de 76 ans, et est inhumé au cimetière Saint-Jean. Il a légué son jardin, le Jardin Massey, et presque tous ses biens à la ville de Tarbes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Placide_Massey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Placide_Massey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Son testament</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">« Je donne à la commune de Tarbes, ma ville natale, tous les immeubles que je possède sur son territoire et consistant en jardin d'ornement, pépinière, maisons, prairies, le jardin d'ornement pour servir de promenade ; la pépinière pour continuer la culture d'arbres fruitiers, les maisons et prairies pour employer leurs produits à l'entretien du jardin d'ornement et de la pépinière.
 Comme les produits ne peuvent pas être suffisants pour l'entretien du jardin d'ornement à cause du jardin d'hiver que j'y fais construire, je donne en outre, à la commune de Tarbes, soixante actions du Chemin de fer du nord qui produiront environ deux mille francs par an. »
